--- a/www.eia.gov/electricity/monthly/xls/table_6_03.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="908">
   <si>
     <t>Table 6.3. New Utility Scale Generating Units by Operating Company, Plant, and Month, 2016</t>
   </si>
@@ -2591,6 +2591,159 @@
   </si>
   <si>
     <t>WEDC1</t>
+  </si>
+  <si>
+    <t>Alaska Electric Light&amp;Power Co</t>
+  </si>
+  <si>
+    <t>Industrial Plant</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Apple, Inc</t>
+  </si>
+  <si>
+    <t>Bonnybrooke PV</t>
+  </si>
+  <si>
+    <t>AZPV1</t>
+  </si>
+  <si>
+    <t>Black Hills/Colorado Elec.Util</t>
+  </si>
+  <si>
+    <t>Peak View Wind Farm</t>
+  </si>
+  <si>
+    <t>WTG</t>
+  </si>
+  <si>
+    <t>Brady Wind, LLC</t>
+  </si>
+  <si>
+    <t>Brady Wind Energy Center</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>BWEC1</t>
+  </si>
+  <si>
+    <t>Railroad Solar Center, LLC</t>
+  </si>
+  <si>
+    <t>RSC1</t>
+  </si>
+  <si>
+    <t>Thunderegg Solar Center, LLC</t>
+  </si>
+  <si>
+    <t>TSC1</t>
+  </si>
+  <si>
+    <t>Vale Air Solar Center, LLC</t>
+  </si>
+  <si>
+    <t>VASC1</t>
+  </si>
+  <si>
+    <t>Electra Wind, LLC</t>
+  </si>
+  <si>
+    <t>Electra Wind Farm</t>
+  </si>
+  <si>
+    <t>EWF</t>
+  </si>
+  <si>
+    <t>Buidling L</t>
+  </si>
+  <si>
+    <t>BLDG1</t>
+  </si>
+  <si>
+    <t>Building F</t>
+  </si>
+  <si>
+    <t>BLDGF</t>
+  </si>
+  <si>
+    <t>Watervliet PV</t>
+  </si>
+  <si>
+    <t>WVPV1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Innovative Solar 65, LLC</t>
+  </si>
+  <si>
+    <t>Innovative Solar 65</t>
+  </si>
+  <si>
+    <t>Mariah del Este LLC</t>
+  </si>
+  <si>
+    <t>Mariah North</t>
+  </si>
+  <si>
+    <t>MAR1</t>
+  </si>
+  <si>
+    <t>IGWF4</t>
+  </si>
+  <si>
+    <t>Orbit Energy Charlotte</t>
+  </si>
+  <si>
+    <t>Pavant Solar II LLC</t>
+  </si>
+  <si>
+    <t>PSII</t>
+  </si>
+  <si>
+    <t>Pio Pico Energy Center LLC</t>
+  </si>
+  <si>
+    <t>Pio Pico Energy Center</t>
+  </si>
+  <si>
+    <t>CTG1</t>
+  </si>
+  <si>
+    <t>CTG2</t>
+  </si>
+  <si>
+    <t>CTG3</t>
+  </si>
+  <si>
+    <t>RE Garland</t>
+  </si>
+  <si>
+    <t>RE Roserock</t>
+  </si>
+  <si>
+    <t>ROSEK</t>
   </si>
   <si>
     <t xml:space="preserve">NOTES:
@@ -3496,7 +3649,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M423"/>
+  <dimension ref="A1:M451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -20797,27 +20950,1175 @@
         <v>57</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="11" t="s">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B423" s="7">
+        <v>11</v>
+      </c>
+      <c r="C423" s="7">
+        <v>213</v>
+      </c>
+      <c r="D423" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B423" s="11"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
-      <c r="F423" s="11"/>
-      <c r="G423" s="11"/>
-      <c r="H423" s="11"/>
-      <c r="I423" s="11"/>
-      <c r="J423" s="11"/>
-      <c r="K423" s="11"/>
-      <c r="L423" s="11"/>
-      <c r="M423" s="11"/>
+      <c r="E423" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F423" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="G423" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H423" s="7">
+        <v>59793</v>
+      </c>
+      <c r="I423" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="J423" s="10">
+        <v>22.8</v>
+      </c>
+      <c r="K423" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L423" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M423" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B424" s="7">
+        <v>11</v>
+      </c>
+      <c r="C424" s="7">
+        <v>57369</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F424" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="G424" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H424" s="7">
+        <v>60413</v>
+      </c>
+      <c r="I424" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="J424" s="10">
+        <v>50</v>
+      </c>
+      <c r="K424" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L424" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M424" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B425" s="7">
+        <v>11</v>
+      </c>
+      <c r="C425" s="7">
+        <v>56146</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F425" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="G425" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H425" s="7">
+        <v>60143</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="J425" s="10">
+        <v>60.8</v>
+      </c>
+      <c r="K425" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L425" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M425" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B426" s="7">
+        <v>11</v>
+      </c>
+      <c r="C426" s="7">
+        <v>60148</v>
+      </c>
+      <c r="D426" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F426" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="G426" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="H426" s="7">
+        <v>60355</v>
+      </c>
+      <c r="I426" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="J426" s="10">
+        <v>150</v>
+      </c>
+      <c r="K426" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L426" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M426" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B427" s="7">
+        <v>11</v>
+      </c>
+      <c r="C427" s="7">
+        <v>58695</v>
+      </c>
+      <c r="D427" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F427" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="G427" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H427" s="7">
+        <v>60333</v>
+      </c>
+      <c r="I427" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="J427" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="K427" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L427" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M427" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B428" s="7">
+        <v>11</v>
+      </c>
+      <c r="C428" s="7">
+        <v>58695</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F428" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="G428" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H428" s="7">
+        <v>60334</v>
+      </c>
+      <c r="I428" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="J428" s="10">
+        <v>10</v>
+      </c>
+      <c r="K428" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L428" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M428" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B429" s="7">
+        <v>11</v>
+      </c>
+      <c r="C429" s="7">
+        <v>58695</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F429" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="G429" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H429" s="7">
+        <v>60335</v>
+      </c>
+      <c r="I429" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="J429" s="10">
+        <v>10</v>
+      </c>
+      <c r="K429" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L429" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M429" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B430" s="7">
+        <v>11</v>
+      </c>
+      <c r="C430" s="7">
+        <v>60128</v>
+      </c>
+      <c r="D430" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E430" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F430" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="G430" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H430" s="7">
+        <v>60338</v>
+      </c>
+      <c r="I430" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="J430" s="10">
+        <v>230</v>
+      </c>
+      <c r="K430" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L430" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M430" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B431" s="7">
+        <v>11</v>
+      </c>
+      <c r="C431" s="7">
+        <v>57104</v>
+      </c>
+      <c r="D431" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F431" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="G431" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H431" s="7">
+        <v>60154</v>
+      </c>
+      <c r="I431" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="J431" s="10">
+        <v>1</v>
+      </c>
+      <c r="K431" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L431" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M431" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B432" s="7">
+        <v>11</v>
+      </c>
+      <c r="C432" s="7">
+        <v>57104</v>
+      </c>
+      <c r="D432" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E432" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F432" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="G432" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H432" s="7">
+        <v>60151</v>
+      </c>
+      <c r="I432" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="J432" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="K432" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L432" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M432" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B433" s="7">
+        <v>11</v>
+      </c>
+      <c r="C433" s="7">
+        <v>9324</v>
+      </c>
+      <c r="D433" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F433" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="G433" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H433" s="7">
+        <v>59853</v>
+      </c>
+      <c r="I433" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="J433" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K433" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L433" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M433" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B434" s="7">
+        <v>11</v>
+      </c>
+      <c r="C434" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D434" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F434" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G434" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H434" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I434" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="J434" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K434" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L434" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M434" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B435" s="7">
+        <v>11</v>
+      </c>
+      <c r="C435" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F435" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G435" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H435" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I435" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J435" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K435" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L435" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M435" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B436" s="7">
+        <v>11</v>
+      </c>
+      <c r="C436" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F436" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G436" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H436" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I436" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="J436" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K436" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L436" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M436" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B437" s="7">
+        <v>11</v>
+      </c>
+      <c r="C437" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F437" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G437" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H437" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I437" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="J437" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K437" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L437" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M437" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B438" s="7">
+        <v>11</v>
+      </c>
+      <c r="C438" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E438" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F438" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G438" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H438" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I438" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="J438" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K438" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L438" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M438" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B439" s="7">
+        <v>11</v>
+      </c>
+      <c r="C439" s="7">
+        <v>59452</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F439" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="G439" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H439" s="7">
+        <v>60222</v>
+      </c>
+      <c r="I439" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="J439" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K439" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="L439" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M439" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B440" s="7">
+        <v>11</v>
+      </c>
+      <c r="C440" s="7">
+        <v>60199</v>
+      </c>
+      <c r="D440" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F440" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="G440" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H440" s="7">
+        <v>60398</v>
+      </c>
+      <c r="I440" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J440" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K440" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L440" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M440" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B441" s="7">
+        <v>11</v>
+      </c>
+      <c r="C441" s="7">
+        <v>58849</v>
+      </c>
+      <c r="D441" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="E441" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F441" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="G441" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H441" s="7">
+        <v>59005</v>
+      </c>
+      <c r="I441" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="J441" s="10">
+        <v>230.4</v>
+      </c>
+      <c r="K441" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L441" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M441" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B442" s="7">
+        <v>11</v>
+      </c>
+      <c r="C442" s="7">
+        <v>59691</v>
+      </c>
+      <c r="D442" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E442" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F442" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G442" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H442" s="7">
+        <v>59936</v>
+      </c>
+      <c r="I442" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J442" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K442" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L442" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M442" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B443" s="7">
+        <v>11</v>
+      </c>
+      <c r="C443" s="7">
+        <v>12341</v>
+      </c>
+      <c r="D443" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F443" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="G443" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H443" s="7">
+        <v>60342</v>
+      </c>
+      <c r="I443" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="J443" s="10">
+        <v>27.6</v>
+      </c>
+      <c r="K443" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L443" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M443" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B444" s="7">
+        <v>11</v>
+      </c>
+      <c r="C444" s="7">
+        <v>58589</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E444" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F444" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="G444" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H444" s="7">
+        <v>58638</v>
+      </c>
+      <c r="I444" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J444" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="K444" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L444" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="M444" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B445" s="7">
+        <v>11</v>
+      </c>
+      <c r="C445" s="7">
+        <v>60238</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F445" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="G445" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H445" s="7">
+        <v>60449</v>
+      </c>
+      <c r="I445" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="J445" s="10">
+        <v>50</v>
+      </c>
+      <c r="K445" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L445" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M445" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B446" s="7">
+        <v>11</v>
+      </c>
+      <c r="C446" s="7">
+        <v>56895</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E446" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F446" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G446" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H446" s="7">
+        <v>57555</v>
+      </c>
+      <c r="I446" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="J446" s="10">
+        <v>97</v>
+      </c>
+      <c r="K446" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L446" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M446" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B447" s="7">
+        <v>11</v>
+      </c>
+      <c r="C447" s="7">
+        <v>56895</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F447" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G447" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H447" s="7">
+        <v>57555</v>
+      </c>
+      <c r="I447" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="J447" s="10">
+        <v>97</v>
+      </c>
+      <c r="K447" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L447" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M447" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B448" s="7">
+        <v>11</v>
+      </c>
+      <c r="C448" s="7">
+        <v>56895</v>
+      </c>
+      <c r="D448" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F448" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G448" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H448" s="7">
+        <v>57555</v>
+      </c>
+      <c r="I448" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="J448" s="10">
+        <v>97</v>
+      </c>
+      <c r="K448" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="L448" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M448" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B449" s="7">
+        <v>11</v>
+      </c>
+      <c r="C449" s="7">
+        <v>17650</v>
+      </c>
+      <c r="D449" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F449" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="G449" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H449" s="7">
+        <v>60233</v>
+      </c>
+      <c r="I449" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="J449" s="10">
+        <v>185</v>
+      </c>
+      <c r="K449" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L449" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M449" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B450" s="7">
+        <v>11</v>
+      </c>
+      <c r="C450" s="7">
+        <v>17650</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E450" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F450" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="G450" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H450" s="7">
+        <v>59994</v>
+      </c>
+      <c r="I450" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="J450" s="10">
+        <v>160</v>
+      </c>
+      <c r="K450" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L450" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M450" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B451" s="11"/>
+      <c r="C451" s="11"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
+      <c r="F451" s="11"/>
+      <c r="G451" s="11"/>
+      <c r="H451" s="11"/>
+      <c r="I451" s="11"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="11"/>
+      <c r="L451" s="11"/>
+      <c r="M451" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A423:M423"/>
+    <mergeCell ref="A451:M451"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="10" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
